--- a/biology/Zoologie/Dryopsophus_maini/Dryopsophus_maini.xlsx
+++ b/biology/Zoologie/Dryopsophus_maini/Dryopsophus_maini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus maini est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus maini est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans la zone aride centrale de l'Australie-Occidentale, dans le sud du Territoire du Nord et dans le nord-ouest de l'Australie-Méridionale, jusqu'à 1 000 m d'altitude. Son aire de répartition est d'environ 2 103 500 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans la zone aride centrale de l'Australie-Occidentale, dans le sud du Territoire du Nord et dans le nord-ouest de l'Australie-Méridionale, jusqu'à 1 000 m d'altitude. Son aire de répartition est d'environ 2 103 500 km2.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus maini[3] mesure de 35,4 à 46,4 mm pour les mâles et de 38,7 à 47,2 mm pour les femelles. Cette espèce a la face dorsale est brun terne et présente des zones sombres dispersées. Elle se nourrit principalement de fourmis et de termites.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus maini mesure de 35,4 à 46,4 mm pour les mâles et de 38,7 à 47,2 mm pour les femelles. Cette espèce a la face dorsale est brun terne et présente des zones sombres dispersées. Elle se nourrit principalement de fourmis et de termites.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur d'Albert Russell Main, zoologiste australien[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur d'Albert Russell Main, zoologiste australien.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tyler &amp; Martin, 1977 : Taxonomic studies in some leptodactylid frogs of the genus Cyclorana Steindachner. Records of the South Australian Museum, vol. 17, no 15, p. 261-276 (texte intégral).</t>
         </is>
